--- a/output/devset/Legal questions Adam.xlsx
+++ b/output/devset/Legal questions Adam.xlsx
@@ -358,7 +358,7 @@
     <t>LOV nr 458 af 08/05/2013</t>
   </si>
   <si>
-    <t>Hvem fastsættes bestemmelser om indretning og vedligeholdelse af tjenesteboliger?</t>
+    <t>Hvem fastsætter bestemmelser om indretning og vedligeholdelse af tjenesteboliger?</t>
   </si>
   <si>
     <t>Ministeren for offentlig innovation efter indhentet udtalelse fra Lønningsrådet.</t>
@@ -483,7 +483,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,12 +501,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -570,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -584,29 +578,26 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,12 +907,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="49.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="49.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -978,7 +969,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1095,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1114,7 +1105,7 @@
       <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1196,7 +1187,7 @@
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1220,7 +1211,7 @@
       <c r="C17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
         <v>70</v>
       </c>
@@ -1244,7 +1235,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1254,7 +1245,7 @@
       <c r="C19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
         <v>78</v>
       </c>
@@ -1333,13 +1324,13 @@
       <c r="F23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D24" s="4">
@@ -1351,23 +1342,23 @@
       <c r="F24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1388,7 +1379,7 @@
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1511,7 +1502,7 @@
       <c r="F33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1592,7 +1583,7 @@
       <c r="C38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="3" t="s">
         <v>153</v>
       </c>

--- a/output/devset/Legal questions Adam.xlsx
+++ b/output/devset/Legal questions Adam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
   <si>
     <t>question</t>
   </si>
@@ -152,21 +152,6 @@
   </si>
   <si>
     <t>LBK nr 1710 af 16/12/2010</t>
-  </si>
-  <si>
-    <t>Har en person, der er blevet videoafhørt pligt til at afgive forklaring som vidne under hovedforhandlingen?</t>
-  </si>
-  <si>
-    <t>En person, der er blevet videoafhørt efter, har ikke pligt til at afgive forklaring som vidne under hovedforhandlingen.</t>
-  </si>
-  <si>
-    <t>En person, der er blevet videoafhørt efter § 340 a eller § 155, stk. 3, har ikke pligt til at afgive forklaring som vidne under hovedforhandlingen. Retten kan helt undtagelsesvis pålægge en person, der er omfattet af stk. 1, at afgive forklaring som vidne under hovedforhandlingen, hvis dette er af afgørende betydning for sagens afgørelse og det ikke er tilstrækkeligt, at personen genafhøres til video.'</t>
-  </si>
-  <si>
-    <t>146a</t>
-  </si>
-  <si>
-    <t>LBK nr 1581 af 13/12/2016</t>
   </si>
   <si>
     <t>Hvilke bestemmelser gælder for masteruddannelser som regulerede forløb ved universiteterne?</t>
@@ -901,7 +886,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1112,193 +1097,193 @@
       <c r="F11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="4">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="4">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" s="4">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4">
+        <v>98</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="4">
-        <v>98</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="4">
+        <v>52</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="4">
-        <v>52</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="A22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D22" s="4">
-        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>90</v>
@@ -1306,288 +1291,270 @@
       <c r="F22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D24" s="4">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="4">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+      <c r="A26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="F27" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+      <c r="A28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="4">
-        <v>81</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="4">
+        <v>14</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="4">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+      <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="4">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D29" s="4">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="4">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D30" s="4">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="4">
-        <v>16</v>
-      </c>
       <c r="E31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="F32" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="4">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D34" s="4">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="4">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D35" s="4">
-        <v>12</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="4">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D36" s="4">
-        <v>14</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="4">
-        <v>15</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="F37" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/devset/Legal questions Adam.xlsx
+++ b/output/devset/Legal questions Adam.xlsx
@@ -415,7 +415,7 @@
     <t>LOV nr 409 af 11/05/2016</t>
   </si>
   <si>
-    <t>Hvor stor en beløbsmæssig grænse skal Investeringer, som DSB eller datterselskaber heraf påtænker at foretage, forelægges Folketingets Finansudvalg til godkendelse?</t>
+    <t>Hvor stor en beløbsmæssig grænse skal investeringer, som DSB eller datterselskaber heraf påtænker at foretage, forelægges Folketingets Finansudvalg til godkendelse?</t>
   </si>
   <si>
     <t>En beløbsmæssig grænse på 100 mio. kr.</t>
@@ -427,7 +427,7 @@
     <t>LBK nr 574 af 07/05/2019</t>
   </si>
   <si>
-    <t>Hvad er fagligheden primært forbundet med produktionsgrunduddannelse?</t>
+    <t>Hvad er fagligheden primært forbundet med på produktionsgrunduddannelse?</t>
   </si>
   <si>
     <t>Praktisk arbejde, værkstedsundervisning og opgaveløsning med henblik på produktion, herunder som erhvervstræning i samarbejde med virksomheder.</t>
